--- a/biology/Biochimie/Nonose/Nonose.xlsx
+++ b/biology/Biochimie/Nonose/Nonose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un nonose est un ose possédant neuf atomes de carbone[1],[2]. La formule chimique est C9(H2O)9 ou C9H18O9.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un nonose est un ose possédant neuf atomes de carbone,. La formule chimique est C9(H2O)9 ou C9H18O9.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En fonction de la position des groupes fonctionnels, on distingue les cétononoses et les aldononoses :
 les aldononoses ont sept centres stéréogènes, ce qui permet la formation de 128 stéréoisomères (27), qui diffèrent par la position des groupes hydroxyle ou de l'atome de carbone asymétrique ;
@@ -543,7 +557,9 @@
           <t>Familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il existe quatre familles de nonoses connus :
 Acide neuraminique ;
@@ -577,10 +593,12 @@
           <t>Exemples dans la nature</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se produit dans les monosaccharides ramifiés (cariose : 4,8-cyclo-3,9-didésoxy-L-érythro-D-idononose)[3],[4]. Le cariose est le seul sucre carbocyclique trouvé à ce jour dans la nature[5]. Il a été identifié comme un composant de deux chaînes O homopolymères du polysaccharide de la bactérie phytopathogène Burkholderia caryophylli LPS responsable du flétrissement des œillets[5].
-Le D-érythro-L-galacto-nonulose est présent dans le fruit de l'avocat (Persea americana) et les racines de la primevère officinale (Primula officinalis)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se produit dans les monosaccharides ramifiés (cariose : 4,8-cyclo-3,9-didésoxy-L-érythro-D-idononose),. Le cariose est le seul sucre carbocyclique trouvé à ce jour dans la nature. Il a été identifié comme un composant de deux chaînes O homopolymères du polysaccharide de la bactérie phytopathogène Burkholderia caryophylli LPS responsable du flétrissement des œillets.
+Le D-érythro-L-galacto-nonulose est présent dans le fruit de l'avocat (Persea americana) et les racines de la primevère officinale (Primula officinalis).
 </t>
         </is>
       </c>
